--- a/m100_Tools_And_Helpers/12 Combinations.xlsx
+++ b/m100_Tools_And_Helpers/12 Combinations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rob\repos\LusasNoteBooks\m100_Tools_And_Helpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robsc\source\repos\LusasNoteBooks\m100_Tools_And_Helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C53D0FA-DCDB-4832-AD2F-4BC1E6DF7DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6815BBA9-6810-4FC5-B9B8-F0636A64B20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8892" yWindow="1524" windowWidth="13488" windowHeight="10332" tabRatio="773" activeTab="2" xr2:uid="{FDC71FF7-6F4E-4823-A2C1-2C9C6BED4684}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="773" activeTab="1" xr2:uid="{FDC71FF7-6F4E-4823-A2C1-2C9C6BED4684}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Loadcase Name</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>Track 2</t>
+  </si>
+  <si>
+    <t>Loadcase</t>
+  </si>
+  <si>
+    <t>Seismic Envelope</t>
+  </si>
+  <si>
+    <t>Explosion Envelope</t>
   </si>
 </sst>
 </file>
@@ -559,31 +568,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71399A4-9D3B-436B-ABA7-597E97B8316E}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="4.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.88671875" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.36328125" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.90625" customWidth="1"/>
+    <col min="15" max="15" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -606,7 +615,7 @@
       </c>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -647,7 +656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -688,7 +697,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -722,7 +731,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -751,7 +760,7 @@
       <c r="M5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -791,31 +800,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A548F276-FD02-4014-914C-5B832C8DB01E}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="str">
         <f>Actions!A3</f>
         <v>Permanent load</v>
@@ -827,7 +840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="str">
         <f>Actions!A4</f>
         <v>SuperImposed</v>
@@ -836,7 +849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="str">
         <f>Actions!A5</f>
         <v>Settlement</v>
@@ -845,7 +858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="str">
         <f>Actions!A6</f>
         <v>Shrinkage</v>
@@ -854,31 +867,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
     </row>
   </sheetData>
@@ -890,33 +903,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A7A340-8596-4719-A177-6BE8E341CB07}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="str">
         <f>Actions!E3</f>
         <v>TLO Traffic</v>
@@ -925,7 +938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="str">
         <f>Actions!E4</f>
         <v>Rail Traffic</v>
@@ -937,7 +950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="str">
         <f>Actions!E5</f>
         <v>Wind</v>
@@ -946,7 +959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="str">
         <f>Actions!E6</f>
         <v>Thermal</v>
@@ -955,31 +968,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
     </row>
   </sheetData>
@@ -992,86 +1005,80 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="str">
-        <f>Actions!E3</f>
-        <v>TLO Traffic</v>
+        <f>Actions!O3</f>
+        <v>Seismic</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="str">
-        <f>Actions!E5</f>
-        <v>Wind</v>
+        <f>Actions!O4</f>
+        <v>Explosion</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <f>Actions!E6</f>
-        <v>Thermal</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
     </row>
   </sheetData>

--- a/m100_Tools_And_Helpers/12 Combinations.xlsx
+++ b/m100_Tools_And_Helpers/12 Combinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rob\repos\LusasNoteBooks\m100_Tools_And_Helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C53D0FA-DCDB-4832-AD2F-4BC1E6DF7DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E259A2E-113A-4B20-B8A8-C5F093984483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8892" yWindow="1524" windowWidth="13488" windowHeight="10332" tabRatio="773" activeTab="2" xr2:uid="{FDC71FF7-6F4E-4823-A2C1-2C9C6BED4684}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="773" xr2:uid="{FDC71FF7-6F4E-4823-A2C1-2C9C6BED4684}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Loadcase Name</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Settlement</t>
   </si>
   <si>
-    <t>Prestres</t>
-  </si>
-  <si>
     <t>DesignFactor</t>
   </si>
   <si>
@@ -147,6 +144,21 @@
   </si>
   <si>
     <t>Track 2</t>
+  </si>
+  <si>
+    <t>Reduction</t>
+  </si>
+  <si>
+    <t>Seismic Actions</t>
+  </si>
+  <si>
+    <t>Seismic Action Name</t>
+  </si>
+  <si>
+    <t>Flooding</t>
+  </si>
+  <si>
+    <t>Prestress</t>
   </si>
 </sst>
 </file>
@@ -557,58 +569,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71399A4-9D3B-436B-ABA7-597E97B8316E}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N14" sqref="M14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="4.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.88671875" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.88671875" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="E1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="O1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N1" s="4"/>
+      <c r="P1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="S1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -616,40 +634,49 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>0.95</v>
@@ -657,40 +684,49 @@
       <c r="C3" s="1">
         <v>1.35</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="D3" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1">
         <v>1.5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.7</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.6</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.5</v>
       </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.95</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>1.05</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1">
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
         <v>0.95</v>
@@ -698,31 +734,40 @@
       <c r="C4" s="1">
         <v>1.35</v>
       </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="D4" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1">
         <v>1.5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.7</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.6</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.5</v>
       </c>
-      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="N4" s="1"/>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -732,28 +777,31 @@
       <c r="C5" s="1">
         <v>1.35</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D5" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1">
         <v>1.6</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.7</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.6</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.5</v>
       </c>
-      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -761,28 +809,32 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D6" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1">
         <v>1.3</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.7</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>0.6</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="K1:M1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -794,7 +846,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,7 +858,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -821,10 +873,10 @@
         <v>Permanent load</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -833,7 +885,7 @@
         <v>SuperImposed</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -842,7 +894,7 @@
         <v>Settlement</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -851,7 +903,7 @@
         <v>Shrinkage</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -890,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A7A340-8596-4719-A177-6BE8E341CB07}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,7 +956,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -918,7 +970,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
-        <f>Actions!E3</f>
+        <f>Actions!F3</f>
         <v>TLO Traffic</v>
       </c>
       <c r="B2" t="s">
@@ -927,19 +979,19 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
-        <f>Actions!E4</f>
+        <f>Actions!F4</f>
         <v>Rail Traffic</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
-        <f>Actions!E5</f>
+        <f>Actions!F5</f>
         <v>Wind</v>
       </c>
       <c r="B4" t="s">
@@ -948,7 +1000,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
-        <f>Actions!E6</f>
+        <f>Actions!F6</f>
         <v>Thermal</v>
       </c>
       <c r="B5" t="s">
@@ -1005,7 +1057,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1019,7 +1071,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
-        <f>Actions!E3</f>
+        <f>Actions!F3</f>
         <v>TLO Traffic</v>
       </c>
       <c r="B2" t="s">
@@ -1028,7 +1080,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
-        <f>Actions!E5</f>
+        <f>Actions!F5</f>
         <v>Wind</v>
       </c>
       <c r="B3" t="s">
@@ -1037,7 +1089,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
-        <f>Actions!E6</f>
+        <f>Actions!F6</f>
         <v>Thermal</v>
       </c>
       <c r="B4" t="s">

--- a/m100_Tools_And_Helpers/12 Combinations.xlsx
+++ b/m100_Tools_And_Helpers/12 Combinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rob\repos\LusasNoteBooks\m100_Tools_And_Helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E259A2E-113A-4B20-B8A8-C5F093984483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50407252-6A86-459E-8D55-AEE0A972A615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="773" xr2:uid="{FDC71FF7-6F4E-4823-A2C1-2C9C6BED4684}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="PermanentLoadcases" sheetId="2" r:id="rId2"/>
     <sheet name="VariableLoadcases" sheetId="3" r:id="rId3"/>
     <sheet name="AccidentalLoadcases" sheetId="5" r:id="rId4"/>
+    <sheet name="SeismicLoadcases" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Loadcase Name</t>
   </si>
@@ -104,15 +105,9 @@
     <t>Variable Actions</t>
   </si>
   <si>
-    <t>Seismic</t>
-  </si>
-  <si>
     <t>Explosion</t>
   </si>
   <si>
-    <t>Factor</t>
-  </si>
-  <si>
     <t>Accidental Actions</t>
   </si>
   <si>
@@ -155,10 +150,31 @@
     <t>Seismic Action Name</t>
   </si>
   <si>
-    <t>Flooding</t>
-  </si>
-  <si>
     <t>Prestress</t>
+  </si>
+  <si>
+    <t>Seismic Vertical</t>
+  </si>
+  <si>
+    <t>Seismic Horizontal</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Explosion Envelope</t>
+  </si>
+  <si>
+    <t>Impact Envelope</t>
+  </si>
+  <si>
+    <t>Seismic Envelope</t>
+  </si>
+  <si>
+    <t>AccFactor</t>
+  </si>
+  <si>
+    <t>SeismicFactor</t>
   </si>
 </sst>
 </file>
@@ -572,7 +588,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N14" sqref="M14:N14"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,12 +609,14 @@
     <col min="15" max="15" width="4.88671875" customWidth="1"/>
     <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" customWidth="1"/>
     <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -616,17 +634,17 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="P1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="4"/>
       <c r="S1" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -635,10 +653,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
@@ -662,24 +680,24 @@
         <v>2</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>1.35</v>
@@ -703,7 +721,7 @@
         <v>0.5</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1">
         <v>0.95</v>
@@ -712,24 +730,24 @@
         <v>1.05</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="T3" s="1">
-        <v>1.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>1.35</v>
@@ -738,7 +756,7 @@
         <v>0.85</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1">
         <v>1.5</v>
@@ -755,16 +773,16 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="T4" s="1">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -772,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>1.35</v>
@@ -784,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="1">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H5" s="1">
         <v>0.7</v>
@@ -816,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="1">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H6" s="1">
         <v>0.7</v>
@@ -894,7 +912,7 @@
         <v>Settlement</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -983,10 +1001,10 @@
         <v>Rail Traffic</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1044,7 +1062,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,30 +1089,107 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
-        <f>Actions!F3</f>
-        <v>TLO Traffic</v>
+        <f>Actions!P3</f>
+        <v>Explosion</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
-        <f>Actions!F5</f>
-        <v>Wind</v>
+        <f>Actions!P4</f>
+        <v>Impact</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <f>Actions!F6</f>
-        <v>Thermal</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D74FEAC-9AE9-46A9-A400-FD2398360BA4}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="str">
+        <f>Actions!S3</f>
+        <v>Seismic Horizontal</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="str">
+        <f>Actions!S4</f>
+        <v>Seismic Vertical</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
